--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Course Development/IS382/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A13F8A-451D-E947-9124-3960FFC4E9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F8AA28-4737-794A-95DA-7C78B049F233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{998DF6E3-BBDB-4446-B608-FEFD4AEC9D52}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Week</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>/modules/14-Module.html</t>
-  </si>
-  <si>
-    <t>/modules/15-Module.html</t>
   </si>
   <si>
     <t>Topic</t>
@@ -1043,7 +1040,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -1107,7 +1104,7 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1121,7 +1118,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1135,7 +1132,7 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1149,7 +1146,7 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1163,7 +1160,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1177,7 +1174,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1191,7 +1188,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1205,7 +1202,7 @@
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1219,7 +1216,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1233,7 +1230,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1247,7 +1244,7 @@
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1279,9 +1276,7 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
